--- a/TM/TM.xlsx
+++ b/TM/TM.xlsx
@@ -8,15 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taku\Documents\00_ROOT\00_WORK\util\TM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18596FD8-80C3-43BB-9F25-D7E9EE4AAC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28F45F-9C07-4943-A6F8-F639D0345E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3850" yWindow="650" windowWidth="14980" windowHeight="10470" xr2:uid="{5847F8DE-2E8B-4F72-9757-60B0E542BD30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{5847F8DE-2E8B-4F72-9757-60B0E542BD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="スライサー_fl">#N/A</definedName>
+    <definedName name="スライサー_pl">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -36,21 +50,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>TM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hoge</t>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>el</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ln</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>特定row/columnを参照</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 式</t>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間を数値に変換</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIME(8,45,0)*24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEXT(NOW(),"hh:mm:ss")*24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=INDIRECT(ADDRESS(ROW(),4))&lt;&gt;""</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>act</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>real</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業１</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業２</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業３</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業４</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業５</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業６</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="186" formatCode="0\ &quot;m&quot;"/>
+    <numFmt numFmtId="187" formatCode="0\ &quot;hour&quot;"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,21 +284,84 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -89,16 +370,1291 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="116">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="187" formatCode="0\ &quot;hour&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="テーブル スタイル 1" pivot="0" count="2" xr9:uid="{87E2348D-42B2-4578-A176-C87CDE47475F}">
+      <tableStyleElement type="wholeTable" dxfId="115"/>
+      <tableStyleElement type="headerRow" dxfId="114"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -108,6 +1664,224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>62794</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>754944</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="pl">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE53545-AB43-3860-8F13-61654B372CC1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="pl"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="253294" y="132643"/>
+              <a:ext cx="692150" cy="1708857"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図形はテーブル スライサーを表しています。テーブル スライサーはこのバージョンの Excel ではサポートされていません。
+以前のバージョンの Excel で図形を変更した場合、または Excel 2007 以前の形式でブックを保存した場合は、スライサーを使用できません。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>842433</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1566332</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7055</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="fl">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ADBCA7-4FAE-8AC9-FF4F-500510D914AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="fl"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1032933" y="129116"/>
+              <a:ext cx="723899" cy="1677106"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図形はテーブル スライサーを表しています。テーブル スライサーはこのバージョンの Excel ではサポートされていません。
+以前のバージョンの Excel で図形を変更した場合、または Excel 2007 以前の形式でブックを保存した場合は、スライサーを使用できません。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="スライサー_pl" xr10:uid="{3E72E3D4-843F-4290-AE01-0D0E0EAABCC2}" sourceName="pl">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="3"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="スライサー_fl" xr10:uid="{B8BC4A4B-CCC4-442B-A5C2-5040089D1DF7}" sourceName="fl">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="pl" xr10:uid="{FBC8DB8E-3094-4413-A2FE-83802B136D49}" cache="スライサー_pl" caption="pl" rowHeight="251883"/>
+  <slicer name="fl" xr10:uid="{47276FEB-26FA-4A64-A8D8-FA26975814B5}" cache="スライサー_fl" caption="fl" rowHeight="251883"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2983BDF6-C586-4789-9F3F-0C1E3D3A8345}" name="テーブル1" displayName="テーブル1" ref="C11:Q22">
+  <autoFilter ref="C11:Q22" xr:uid="{2983BDF6-C586-4789-9F3F-0C1E3D3A8345}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{FD6D12B2-D73E-4E58-848E-DE52B0F89D57}" name="category" totalsRowLabel="集計"/>
+    <tableColumn id="2" xr3:uid="{FE065889-791B-40D7-8A4A-1AAD87E5B6A1}" name="TASK"/>
+    <tableColumn id="3" xr3:uid="{9F6F2993-E10D-4073-B8EF-31596154D49D}" name="pl"/>
+    <tableColumn id="4" xr3:uid="{A0037BE2-2351-41C0-B5E1-AB62D4192669}" name="el"/>
+    <tableColumn id="5" xr3:uid="{B7D05059-F07D-471B-ACEA-A2C9F0F07343}" name="tl"/>
+    <tableColumn id="6" xr3:uid="{47362DAE-358E-4F85-ABE5-7DA24F97BA93}" name="fl" dataDxfId="56">
+      <calculatedColumnFormula>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BDF2F670-B428-4DA2-A538-4B02A84E4878}" name="note" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{C9F94D32-0C9D-4056-BD1E-E54AAFA3C978}" name="ln"/>
+    <tableColumn id="9" xr3:uid="{D6DAD97E-BFAF-4386-A8A7-1C8F69BAFD04}" name="1"/>
+    <tableColumn id="10" xr3:uid="{08368CF9-275E-47ED-9546-F97FA857B496}" name="2"/>
+    <tableColumn id="11" xr3:uid="{1707C5B4-141E-4FD1-B9EF-158458D84842}" name="3"/>
+    <tableColumn id="12" xr3:uid="{9C532D46-DCC8-4039-9A8D-34E64937C538}" name="4"/>
+    <tableColumn id="13" xr3:uid="{3E0B8C91-529D-4337-93ED-5E07159DDFEB}" name="time1" dataDxfId="86">
+      <calculatedColumnFormula>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{4432F1C1-F0E2-4D55-A08A-63586BC03E93}" name="time2" dataDxfId="85">
+      <calculatedColumnFormula>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{8343BBCC-3C30-453B-8DF7-B783EFE4D638}" name="列1" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="テーブル スタイル 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,22 +2201,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8532A3-CD5B-4626-B0BD-DD7800D31F6B}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="C1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="8" width="3.9140625" customWidth="1"/>
+    <col min="9" max="9" width="33.58203125" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" customWidth="1"/>
+    <col min="11" max="14" width="3.58203125" customWidth="1"/>
+    <col min="15" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+    <row r="1" spans="3:17" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I3" s="5">
+        <f>D3*24</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I4" s="5">
+        <f>D4*24</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f ca="1">TEXT(NOW(),"hh:mm")</f>
+        <v>20:57</v>
+      </c>
+      <c r="I5">
+        <f ca="1">D5*24</f>
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8">
+        <f ca="1">(I5-I3)/(I4-I3)</f>
+        <v>0.92075471698113198</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8">
+        <f>O10/(I4-I3)</f>
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="6">
+        <f ca="1">IF(I4&gt;I5,((I5-I3)-O10)*60,1)</f>
+        <v>26.999999999999957</v>
+      </c>
+      <c r="O10">
+        <f>SUM(テーブル1[time1])</f>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="14" t="str">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>-</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="O12" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="16">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="16">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v>1.25</v>
+      </c>
+      <c r="P14" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15" s="16">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v>6</v>
+      </c>
+      <c r="P15" s="17">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" s="16">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v>4.25</v>
+      </c>
+      <c r="P16" s="17">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="O17" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="O18" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="14" t="str">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>-</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="O19" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="O20" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="O21" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="14">
+        <f>IF(OR(テーブル1[[#This Row],[tl]]&lt;&gt;"",テーブル1[[#This Row],[el]]="e"),1,IF(テーブル1[[#This Row],[el]]="o",3,IF(テーブル1[[#This Row],[category]]="-","-",2)))</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="O22" s="16" t="str">
+        <f>IF(SUM(テーブル1[[#This Row],[1]:[4]])*15/60&gt;0,SUM(テーブル1[[#This Row],[1]:[4]])*15/60,"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="17" t="str">
+        <f>IF(テーブル1[[#This Row],[time1]]&lt;&gt;"",IF(テーブル1[[#This Row],[time1]]&gt;4,テーブル1[[#This Row],[time1]]-4,""),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C12:Q22">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>INDIRECT(ADDRESS(ROW(),3))="-"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="19">
+      <formula>INDIRECT(ADDRESS(ROW(),4))&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G22">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>"y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+      <formula>"t"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:H22">
+    <cfRule type="expression" dxfId="24" priority="7">
+      <formula>INDIRECT(ADDRESS(ROW(),7))="n1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>INDIRECT(ADDRESS(ROW(),7))="n2"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>INDIRECT(ADDRESS(ROW(),5))="a"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>INDIRECT(ADDRESS(ROW(),5))="b"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="17">
+      <formula>INDIRECT(ADDRESS(ROW(),5))="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>INDIRECT(ADDRESS(ROW(),4))&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:N7">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C4E12CC-D62D-4DD5-9A97-49CCAD80513F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:N9">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66245208-97A8-4E73-9633-77ED40C1FFB9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:Q22">
+    <cfRule type="expression" dxfId="16" priority="13">
+      <formula>INDIRECT(ADDRESS(ROW(),6))="o"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>INDIRECT(ADDRESS(ROW(),6))="e"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:P22">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="4"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{57269E98-DB22-4DCE-A7AC-795BF7C83DB6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C4E12CC-D62D-4DD5-9A97-49CCAD80513F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:N7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66245208-97A8-4E73-9633-77ED40C1FFB9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D8:N9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{57269E98-DB22-4DCE-A7AC-795BF7C83DB6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O12:P22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EA816-BA70-4BB0-9154-2D7E89C3D255}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
